--- a/data.xlsx
+++ b/data.xlsx
@@ -1,42 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancheng/Desktop/ryan/cansat/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C310AB89-B456-3741-9DA7-4D4F93206956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{B199323E-66BE-0B4D-82F4-09770B423DA1}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -70,15 +51,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -93,44 +66,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -157,32 +130,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -209,24 +164,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -238,153 +175,458 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52FA8FD-4F52-DD47-9524-D2EA37847B3A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancheng/Desktop/ryan/cansat/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5289D0-929F-C64F-A2A9-7F7A96955730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +58,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +112,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -130,9 +144,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,6 +196,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -339,294 +389,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:C57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="3:3">
-      <c r="C2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3">
-      <c r="C3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3">
-      <c r="C4">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3">
-      <c r="C48">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancheng/Desktop/ryan/cansat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5289D0-929F-C64F-A2A9-7F7A96955730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067714E5-96DA-6F4B-823B-147A5B51FBD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="F8" sqref="A1:G323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
